--- a/titanic_edited_with_formulas.xlsx
+++ b/titanic_edited_with_formulas.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="titanic_edited" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8846" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8854" uniqueCount="60">
   <si>
     <t>Class</t>
   </si>
@@ -175,6 +175,30 @@
   </si>
   <si>
     <t>Total Survived Child</t>
+  </si>
+  <si>
+    <t>Total Dead Male</t>
+  </si>
+  <si>
+    <t>Total Dead Female</t>
+  </si>
+  <si>
+    <t>Total Dead Adult</t>
+  </si>
+  <si>
+    <t>Total Dead Child</t>
+  </si>
+  <si>
+    <t>Total Survived 1st Female</t>
+  </si>
+  <si>
+    <t>Total Survived 1st Child</t>
+  </si>
+  <si>
+    <t>Total Survived 3rd Child</t>
+  </si>
+  <si>
+    <t>Total Survived 2nd Child</t>
   </si>
 </sst>
 </file>
@@ -984,7 +1008,7 @@
   <dimension ref="A1:P2202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,21 +1081,26 @@
         <v>17</v>
       </c>
       <c r="G2">
+        <f>COUNTIF(A2:A2202,"1st")</f>
         <v>325</v>
       </c>
       <c r="H2">
+        <f>COUNTIF(A2:A2202,"2nd")</f>
         <v>285</v>
       </c>
       <c r="I2">
+        <f>COUNTIF(A2:A2202,"3rd")</f>
         <v>706</v>
       </c>
       <c r="J2">
+        <f>COUNTIF(A2:A2202,"Crew")</f>
         <v>885</v>
       </c>
       <c r="K2">
         <v>1731</v>
       </c>
       <c r="L2">
+        <f>COUNTIF(B2:B2202,"Female")</f>
         <v>470</v>
       </c>
       <c r="M2">
@@ -1083,9 +1112,11 @@
         <v>109</v>
       </c>
       <c r="O2">
+        <f>COUNTIF(D2:D2202,"Yes")</f>
         <v>711</v>
       </c>
       <c r="P2">
+        <f>COUNTIF(D2:D2202,"No")</f>
         <v>1490</v>
       </c>
     </row>
@@ -1117,15 +1148,19 @@
         <v>17</v>
       </c>
       <c r="G4">
+        <f>SUM(G2,H2,I2,J2)</f>
         <v>2201</v>
       </c>
       <c r="K4">
+        <f>SUM(K2,L2)</f>
         <v>2201</v>
       </c>
       <c r="M4">
+        <f>SUM(M2,N2)</f>
         <v>2201</v>
       </c>
       <c r="O4">
+        <f>SUM(O2,P2)</f>
         <v>2201</v>
       </c>
     </row>
@@ -1507,27 +1542,27 @@
         <v>17</v>
       </c>
       <c r="K19">
-        <f>SUM(K8,K11,K14,K17)</f>
+        <f t="shared" ref="K19:P19" si="0">SUM(K8,K11,K14,K17)</f>
         <v>1731</v>
       </c>
       <c r="L19">
-        <f>SUM(L8,L11,L14,L17)</f>
+        <f t="shared" si="0"/>
         <v>470</v>
       </c>
       <c r="M19">
-        <f>SUM(M8,M11,M14,M17)</f>
+        <f t="shared" si="0"/>
         <v>2092</v>
       </c>
       <c r="N19">
-        <f>SUM(N8,N11,N14,N17)</f>
+        <f t="shared" si="0"/>
         <v>109</v>
       </c>
       <c r="O19">
-        <f>SUM(O8,O11,O14,O17)</f>
+        <f t="shared" si="0"/>
         <v>711</v>
       </c>
       <c r="P19">
-        <f>SUM(P8,P11,P14,P17)</f>
+        <f t="shared" si="0"/>
         <v>1490</v>
       </c>
     </row>
@@ -1642,6 +1677,18 @@
       <c r="D25" t="s">
         <v>17</v>
       </c>
+      <c r="K25" t="s">
+        <v>52</v>
+      </c>
+      <c r="L25" t="s">
+        <v>53</v>
+      </c>
+      <c r="M25" t="s">
+        <v>54</v>
+      </c>
+      <c r="N25" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -1656,6 +1703,22 @@
       <c r="D26" t="s">
         <v>17</v>
       </c>
+      <c r="K26">
+        <f>COUNTIFS(B2:B2202,"Male",D2:D2202,"No")</f>
+        <v>1364</v>
+      </c>
+      <c r="L26">
+        <f>COUNTIFS(B2:B2202,"Female",D2:D2202,"No")</f>
+        <v>126</v>
+      </c>
+      <c r="M26">
+        <f>COUNTIFS(C2:C2202,"Adult",D2:D2202,"No")</f>
+        <v>1438</v>
+      </c>
+      <c r="N26">
+        <f>COUNTIFS(C2:C2202,"Child",D2:D2202,"No")</f>
+        <v>52</v>
+      </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -1684,6 +1747,12 @@
       <c r="D28" t="s">
         <v>17</v>
       </c>
+      <c r="K28" t="s">
+        <v>56</v>
+      </c>
+      <c r="M28" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -1698,6 +1767,14 @@
       <c r="D29" t="s">
         <v>17</v>
       </c>
+      <c r="K29">
+        <f>COUNTIFS(D2:D2202,"Yes",A2:A2202,"1st",B2:B2202,"Female")</f>
+        <v>141</v>
+      </c>
+      <c r="M29">
+        <f>COUNTIFS(D2:D2202,"Yes",A2:A2202,"1st",C2:C2202,"Child")</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -1726,6 +1803,9 @@
       <c r="D31" t="s">
         <v>17</v>
       </c>
+      <c r="M31" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -1740,8 +1820,12 @@
       <c r="D32" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <f>COUNTIFS(D2:D2202,"Yes",A2:A2202,"2nd",C2:C2202,"Child")</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -1755,7 +1839,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -1768,8 +1852,11 @@
       <c r="D34" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="M34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -1782,8 +1869,12 @@
       <c r="D35" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <f>COUNTIFS(D2:D2202,"Yes",A2:A2202,"3rd",B2:B2202,"Child")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -1797,7 +1888,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -1811,7 +1902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -1825,7 +1916,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -1839,7 +1930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -1853,7 +1944,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -1867,7 +1958,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -1881,7 +1972,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -1895,7 +1986,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -1909,7 +2000,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -1923,7 +2014,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -1937,7 +2028,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -1951,7 +2042,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>14</v>
       </c>
